--- a/黑色/铁矿/eta/铁矿期货价格拟合残差_合并数据.xlsx
+++ b/黑色/铁矿/eta/铁矿期货价格拟合残差_合并数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-55.5979</v>
+        <v>-43.7768</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>-56.7643</v>
+        <v>-46.8528</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>-59.1061</v>
+        <v>-48.9173</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>-59.5561</v>
+        <v>-56.1118</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>-58.3983</v>
+        <v>-54.793</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>-56.7994</v>
+        <v>-52.7371</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>-48.7643</v>
+        <v>-34.5292</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>-61.3743</v>
+        <v>-46.5199</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>-62.2837</v>
+        <v>-60.7061</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>-47.7363</v>
+        <v>-38.2726</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>-45.0831</v>
+        <v>-54.9382</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>-48.7283</v>
+        <v>-53.0367</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>-54.2044</v>
+        <v>-55.4607</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>-54.5298</v>
+        <v>-61.9898</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>-60.0827</v>
+        <v>-61.3114</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>-59.1532</v>
+        <v>-61.8827</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>-58.4498</v>
+        <v>-66.0309</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>-55.899</v>
+        <v>-71.0578</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>-51.4441</v>
+        <v>-68.9492</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>-52.5176</v>
+        <v>-67.4239</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>-70.9152</v>
+        <v>-66.6504</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>-76.2657</v>
+        <v>-76.8858</v>
       </c>
     </row>
     <row r="24">
